--- a/OnBoard/output/trust/bio/Bio_Trust_27.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_27.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q96"/>
+  <dimension ref="A1:Q97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5195,27 +5195,79 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
+          <t>MELIKER</t>
+        </is>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>33</v>
+      </c>
+      <c r="I96">
+        <v>20</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>NA l inferred</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
           <t>CHLAGLA</t>
         </is>
       </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-      <c r="G96">
-        <v>1</v>
-      </c>
-      <c r="H96">
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
         <v>19</v>
       </c>
-      <c r="I96">
-        <v>1</v>
-      </c>
-      <c r="J96" t="inlineStr">
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="L96">
+      <c r="L97">
         <v>0</v>
       </c>
     </row>
